--- a/gams/python/results/Q18/res_sum_Q_rI_reload.xlsx
+++ b/gams/python/results/Q18/res_sum_Q_rI_reload.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sebas\Documents\CloudDrive\Uni\WS24\Research Project\gams\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBECAE22-27D6-45F4-A366-17FBB3DB871D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16AB7A13-CDED-4E55-98A3-FEFF239D41DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-10665" yWindow="2520" windowWidth="7500" windowHeight="6000" xr2:uid="{7D703525-04DF-4DC4-AD17-FBEF719540F9}"/>
+    <workbookView xWindow="4180" yWindow="4180" windowWidth="28800" windowHeight="15460" xr2:uid="{7D703525-04DF-4DC4-AD17-FBEF719540F9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
